--- a/Mifos Automation Excels/Client/918-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/918-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -126,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -134,12 +134,6 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -191,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -211,11 +205,8 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -223,13 +214,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -535,7 +523,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -566,10 +556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -579,7 +569,7 @@
     <col min="5" max="6" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -599,7 +589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>10000</v>
       </c>
@@ -617,7 +607,7 @@
         <v>883.33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>663.25</v>
       </c>
@@ -637,7 +627,7 @@
         <v>46.08</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -657,7 +647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>0</v>
       </c>
@@ -676,32 +666,6 @@
       <c r="F5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -712,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="H2" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -736,50 +700,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="12" t="s">
         <v>22</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -872,7 +836,7 @@
       <c r="D4" s="8">
         <v>42050</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="5">
         <v>0</v>
       </c>
@@ -1420,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1435,43 +1399,43 @@
     <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>2622</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="8">
@@ -1500,10 +1464,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>2621</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="8">
@@ -1530,10 +1494,6 @@
       <c r="J3" s="6">
         <v>10000</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/918-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/918-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -18,10 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
-  <si>
-    <t>click</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>makerepayment</t>
   </si>
@@ -105,13 +102,31 @@
   </si>
   <si>
     <t>Loan Balance</t>
+  </si>
+  <si>
+    <t>clickonmakerepayment</t>
+  </si>
+  <si>
+    <t>repaymenttransactiondate</t>
+  </si>
+  <si>
+    <t>Heading</t>
+  </si>
+  <si>
+    <t>Entry ID</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Head Office</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -126,11 +141,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -176,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -186,12 +196,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -203,12 +207,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,9 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -524,15 +531,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3">
         <v>42050</v>
@@ -560,26 +567,26 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="6">
         <v>10000</v>
       </c>
       <c r="B2" s="5">
@@ -589,7 +596,7 @@
       <c r="D2" s="5">
         <v>0</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>9216.67</v>
       </c>
       <c r="F2" s="5">
@@ -663,10 +670,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -674,61 +681,66 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="10">
+      <c r="C2" s="8">
         <v>42005</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="8">
+      <c r="G2" s="6">
         <v>10000</v>
       </c>
       <c r="H2" s="5"/>
@@ -744,16 +756,19 @@
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="5">
         <v>31</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>42036</v>
       </c>
       <c r="D3" s="5"/>
@@ -761,7 +776,7 @@
       <c r="F3" s="5">
         <v>833.33</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>9166.67</v>
       </c>
       <c r="H3" s="5">
@@ -786,17 +801,20 @@
         <v>0</v>
       </c>
       <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
         <v>933.33</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="5">
         <v>28</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>42064</v>
       </c>
       <c r="D4" s="5"/>
@@ -804,7 +822,7 @@
       <c r="F4" s="5">
         <v>833.33</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <v>8333.34</v>
       </c>
       <c r="H4" s="5">
@@ -829,17 +847,20 @@
         <v>0</v>
       </c>
       <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
         <v>933.33</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="5">
         <v>31</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>42095</v>
       </c>
       <c r="D5" s="5"/>
@@ -847,7 +868,7 @@
       <c r="F5" s="5">
         <v>833.33</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <v>7500.01</v>
       </c>
       <c r="H5" s="5">
@@ -872,17 +893,20 @@
         <v>0</v>
       </c>
       <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
         <v>933.33</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="5">
         <v>30</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>42125</v>
       </c>
       <c r="D6" s="5"/>
@@ -890,7 +914,7 @@
       <c r="F6" s="5">
         <v>833.33</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="7">
         <v>6666.68</v>
       </c>
       <c r="H6" s="5">
@@ -915,17 +939,20 @@
         <v>0</v>
       </c>
       <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
         <v>908.33</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="5">
         <v>31</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>42156</v>
       </c>
       <c r="D7" s="5"/>
@@ -933,7 +960,7 @@
       <c r="F7" s="5">
         <v>833.33</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="7">
         <v>5833.35</v>
       </c>
       <c r="H7" s="5">
@@ -958,17 +985,20 @@
         <v>0</v>
       </c>
       <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="5">
         <v>30</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>42186</v>
       </c>
       <c r="D8" s="5"/>
@@ -976,7 +1006,7 @@
       <c r="F8" s="5">
         <v>833.33</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <v>5000.0200000000004</v>
       </c>
       <c r="H8" s="5">
@@ -1001,17 +1031,20 @@
         <v>0</v>
       </c>
       <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
         <v>891.66</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="5">
         <v>31</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>42217</v>
       </c>
       <c r="D9" s="5"/>
@@ -1019,7 +1052,7 @@
       <c r="F9" s="5">
         <v>833.33</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="7">
         <v>4166.6899999999996</v>
       </c>
       <c r="H9" s="5">
@@ -1044,17 +1077,20 @@
         <v>0</v>
       </c>
       <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
         <v>883.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="5">
         <v>31</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>42248</v>
       </c>
       <c r="D10" s="5"/>
@@ -1062,7 +1098,7 @@
       <c r="F10" s="5">
         <v>833.33</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="7">
         <v>3333.36</v>
       </c>
       <c r="H10" s="5">
@@ -1087,17 +1123,20 @@
         <v>0</v>
       </c>
       <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
         <v>875</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="5">
         <v>30</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>42278</v>
       </c>
       <c r="D11" s="5"/>
@@ -1105,7 +1144,7 @@
       <c r="F11" s="5">
         <v>833.33</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="7">
         <v>2500.0300000000002</v>
       </c>
       <c r="H11" s="5">
@@ -1130,17 +1169,20 @@
         <v>0</v>
       </c>
       <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
         <v>866.66</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="5">
         <v>31</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>42309</v>
       </c>
       <c r="D12" s="5"/>
@@ -1148,7 +1190,7 @@
       <c r="F12" s="5">
         <v>833.33</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="7">
         <v>1666.7</v>
       </c>
       <c r="H12" s="5">
@@ -1173,17 +1215,20 @@
         <v>0</v>
       </c>
       <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
         <v>858.33</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="5">
         <v>30</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <v>42339</v>
       </c>
       <c r="D13" s="5"/>
@@ -1216,17 +1261,20 @@
         <v>0</v>
       </c>
       <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5">
         <v>850</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="5">
         <v>31</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8">
         <v>42370</v>
       </c>
       <c r="D14" s="5"/>
@@ -1259,6 +1307,9 @@
         <v>0</v>
       </c>
       <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
         <v>841.7</v>
       </c>
     </row>
@@ -1269,10 +1320,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1284,85 +1335,105 @@
     <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+      <c r="A2" s="12">
+        <v>2622</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="8">
         <v>42050</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5">
+        <v>933.33</v>
+      </c>
+      <c r="F2" s="5">
+        <v>783.33</v>
+      </c>
+      <c r="G2" s="5">
+        <v>150</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>9216.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>2621</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8">
+        <v>42005</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5">
-        <v>933.33</v>
-      </c>
-      <c r="D2" s="5">
-        <v>783.33</v>
-      </c>
-      <c r="E2" s="5">
-        <v>150</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="9">
-        <v>9216.67</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <v>42005</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="E3" s="6">
         <v>10000</v>
       </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
       <c r="F3" s="5">
         <v>0</v>
       </c>
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
         <v>10000</v>
       </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1385,7 +1456,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3">
         <v>42060</v>
@@ -1393,7 +1464,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4">
         <v>888</v>

--- a/Mifos Automation Excels/Client/918-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/918-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>makerepayment</t>
   </si>
@@ -126,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -144,6 +144,11 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
@@ -186,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -217,6 +222,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,10 +566,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -565,7 +579,7 @@
     <col min="5" max="6" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -585,7 +599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>10000</v>
       </c>
@@ -603,9 +617,9 @@
         <v>883.33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>667.17</v>
+        <v>663.25</v>
       </c>
       <c r="B3" s="5">
         <v>150</v>
@@ -617,13 +631,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="5">
-        <v>517.16999999999996</v>
+        <v>513.25</v>
       </c>
       <c r="F3" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>46.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -643,7 +657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>0</v>
       </c>
@@ -662,6 +676,32 @@
       <c r="F5" s="5">
         <v>0</v>
       </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -670,64 +710,76 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="13" t="s">
         <v>22</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -792,19 +844,19 @@
         <v>933.33</v>
       </c>
       <c r="L3" s="5">
-        <v>0</v>
+        <v>883.33</v>
       </c>
       <c r="M3" s="5">
         <v>0</v>
       </c>
       <c r="N3" s="5">
-        <v>0</v>
+        <v>883.33</v>
       </c>
       <c r="O3" s="5">
         <v>0</v>
       </c>
       <c r="P3" s="5">
-        <v>933.33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -812,21 +864,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C4" s="8">
-        <v>42064</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+        <v>42050</v>
+      </c>
+      <c r="D4" s="8">
+        <v>42050</v>
+      </c>
+      <c r="E4" s="15"/>
       <c r="F4" s="5">
-        <v>833.33</v>
+        <v>0</v>
       </c>
       <c r="G4" s="7">
-        <v>8333.34</v>
+        <v>9166.67</v>
       </c>
       <c r="H4" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I4" s="5">
         <v>0</v>
@@ -835,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="5">
-        <v>933.33</v>
+        <v>50</v>
       </c>
       <c r="L4" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="5">
         <v>0</v>
@@ -850,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="5">
-        <v>933.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -858,10 +912,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C5" s="8">
-        <v>42095</v>
+        <v>42064</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -869,10 +923,10 @@
         <v>833.33</v>
       </c>
       <c r="G5" s="7">
-        <v>7500.01</v>
+        <v>8333.34</v>
       </c>
       <c r="H5" s="5">
-        <v>100</v>
+        <v>46.08</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
@@ -881,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <v>933.33</v>
+        <v>879.41</v>
       </c>
       <c r="L5" s="5">
         <v>0</v>
@@ -896,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="5">
-        <v>933.33</v>
+        <v>879.41</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -904,10 +958,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="8">
-        <v>42125</v>
+        <v>42095</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -915,10 +969,10 @@
         <v>833.33</v>
       </c>
       <c r="G6" s="7">
-        <v>6666.68</v>
+        <v>7500.01</v>
       </c>
       <c r="H6" s="5">
-        <v>75</v>
+        <v>92.17</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
@@ -927,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <v>908.33</v>
+        <v>925.5</v>
       </c>
       <c r="L6" s="5">
         <v>0</v>
@@ -942,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="5">
-        <v>908.33</v>
+        <v>925.5</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -950,10 +1004,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="8">
-        <v>42156</v>
+        <v>42125</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -961,10 +1015,10 @@
         <v>833.33</v>
       </c>
       <c r="G7" s="7">
-        <v>5833.35</v>
+        <v>6666.68</v>
       </c>
       <c r="H7" s="5">
-        <v>66.67</v>
+        <v>75</v>
       </c>
       <c r="I7" s="5">
         <v>0</v>
@@ -973,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <v>900</v>
+        <v>908.33</v>
       </c>
       <c r="L7" s="5">
         <v>0</v>
@@ -988,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="5">
-        <v>900</v>
+        <v>908.33</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -996,10 +1050,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="8">
-        <v>42186</v>
+        <v>42156</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1007,10 +1061,10 @@
         <v>833.33</v>
       </c>
       <c r="G8" s="7">
-        <v>5000.0200000000004</v>
+        <v>5833.35</v>
       </c>
       <c r="H8" s="5">
-        <v>58.33</v>
+        <v>66.67</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
@@ -1019,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <v>891.66</v>
+        <v>900</v>
       </c>
       <c r="L8" s="5">
         <v>0</v>
@@ -1034,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="5">
-        <v>891.66</v>
+        <v>900</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -1042,10 +1096,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="8">
-        <v>42217</v>
+        <v>42186</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1053,10 +1107,10 @@
         <v>833.33</v>
       </c>
       <c r="G9" s="7">
-        <v>4166.6899999999996</v>
+        <v>5000.0200000000004</v>
       </c>
       <c r="H9" s="5">
-        <v>50</v>
+        <v>58.33</v>
       </c>
       <c r="I9" s="5">
         <v>0</v>
@@ -1065,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="5">
-        <v>883.33</v>
+        <v>891.66</v>
       </c>
       <c r="L9" s="5">
         <v>0</v>
@@ -1080,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="5">
-        <v>883.33</v>
+        <v>891.66</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1091,7 +1145,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="8">
-        <v>42248</v>
+        <v>42217</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1099,10 +1153,10 @@
         <v>833.33</v>
       </c>
       <c r="G10" s="7">
-        <v>3333.36</v>
+        <v>4166.6899999999996</v>
       </c>
       <c r="H10" s="5">
-        <v>41.67</v>
+        <v>50</v>
       </c>
       <c r="I10" s="5">
         <v>0</v>
@@ -1111,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="5">
-        <v>875</v>
+        <v>883.33</v>
       </c>
       <c r="L10" s="5">
         <v>0</v>
@@ -1126,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="5">
-        <v>875</v>
+        <v>883.33</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1134,10 +1188,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="8">
-        <v>42278</v>
+        <v>42248</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1145,10 +1199,10 @@
         <v>833.33</v>
       </c>
       <c r="G11" s="7">
-        <v>2500.0300000000002</v>
+        <v>3333.36</v>
       </c>
       <c r="H11" s="5">
-        <v>33.33</v>
+        <v>41.67</v>
       </c>
       <c r="I11" s="5">
         <v>0</v>
@@ -1157,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="5">
-        <v>866.66</v>
+        <v>875</v>
       </c>
       <c r="L11" s="5">
         <v>0</v>
@@ -1172,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="5">
-        <v>866.66</v>
+        <v>875</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1180,10 +1234,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="8">
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1191,10 +1245,10 @@
         <v>833.33</v>
       </c>
       <c r="G12" s="7">
-        <v>1666.7</v>
+        <v>2500.0300000000002</v>
       </c>
       <c r="H12" s="5">
-        <v>25</v>
+        <v>33.33</v>
       </c>
       <c r="I12" s="5">
         <v>0</v>
@@ -1203,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="5">
-        <v>858.33</v>
+        <v>866.66</v>
       </c>
       <c r="L12" s="5">
         <v>0</v>
@@ -1218,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="5">
-        <v>858.33</v>
+        <v>866.66</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1226,21 +1280,21 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="8">
-        <v>42339</v>
+        <v>42309</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5">
         <v>833.33</v>
       </c>
-      <c r="G13" s="5">
-        <v>833.37</v>
+      <c r="G13" s="7">
+        <v>1666.7</v>
       </c>
       <c r="H13" s="5">
-        <v>16.670000000000002</v>
+        <v>25</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
@@ -1249,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="5">
-        <v>850</v>
+        <v>858.33</v>
       </c>
       <c r="L13" s="5">
         <v>0</v>
@@ -1264,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="5">
-        <v>850</v>
+        <v>858.33</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1272,44 +1326,90 @@
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="8">
-        <v>42370</v>
+        <v>42339</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
+        <v>833.33</v>
+      </c>
+      <c r="G14" s="5">
         <v>833.37</v>
       </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
       <c r="H14" s="5">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>850</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
+        <v>31</v>
+      </c>
+      <c r="C15" s="8">
+        <v>42370</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
+        <v>833.37</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
         <v>8.33</v>
       </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5">
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
         <v>841.7</v>
       </c>
-      <c r="L14" s="5">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5">
-        <v>0</v>
-      </c>
-      <c r="O14" s="5">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5">
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
         <v>841.7</v>
       </c>
     </row>
@@ -1322,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Mifos Automation Excels/Client/918-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/918-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-DL-MD-TR-1-LateRepayment-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -125,7 +130,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -230,6 +235,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -277,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -310,9 +318,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,6 +370,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -558,7 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -674,10 +716,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -694,12 +736,13 @@
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -737,17 +780,18 @@
       <c r="M1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="8">
@@ -772,12 +816,13 @@
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="5">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -813,17 +858,18 @@
       <c r="M3" s="5">
         <v>0</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5">
         <v>883.33</v>
       </c>
-      <c r="O3" s="5">
-        <v>0</v>
-      </c>
       <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -861,17 +907,18 @@
       <c r="M4" s="5">
         <v>0</v>
       </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
+      <c r="N4" s="5"/>
       <c r="O4" s="5">
         <v>0</v>
       </c>
       <c r="P4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -907,17 +954,18 @@
       <c r="M5" s="5">
         <v>0</v>
       </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
+      <c r="N5" s="5"/>
       <c r="O5" s="5">
         <v>0</v>
       </c>
       <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
         <v>879.41</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -953,17 +1001,18 @@
       <c r="M6" s="5">
         <v>0</v>
       </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
+      <c r="N6" s="5"/>
       <c r="O6" s="5">
         <v>0</v>
       </c>
       <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
         <v>925.5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -999,17 +1048,18 @@
       <c r="M7" s="5">
         <v>0</v>
       </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
+      <c r="N7" s="5"/>
       <c r="O7" s="5">
         <v>0</v>
       </c>
       <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
         <v>908.33</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1045,17 +1095,18 @@
       <c r="M8" s="5">
         <v>0</v>
       </c>
-      <c r="N8" s="5">
-        <v>0</v>
-      </c>
+      <c r="N8" s="5"/>
       <c r="O8" s="5">
         <v>0</v>
       </c>
       <c r="P8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1091,17 +1142,18 @@
       <c r="M9" s="5">
         <v>0</v>
       </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
+      <c r="N9" s="5"/>
       <c r="O9" s="5">
         <v>0</v>
       </c>
       <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
         <v>891.66</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1137,17 +1189,18 @@
       <c r="M10" s="5">
         <v>0</v>
       </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
+      <c r="N10" s="5"/>
       <c r="O10" s="5">
         <v>0</v>
       </c>
       <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
         <v>883.33</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1183,17 +1236,18 @@
       <c r="M11" s="5">
         <v>0</v>
       </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
+      <c r="N11" s="5"/>
       <c r="O11" s="5">
         <v>0</v>
       </c>
       <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
         <v>875</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1229,17 +1283,18 @@
       <c r="M12" s="5">
         <v>0</v>
       </c>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
+      <c r="N12" s="5"/>
       <c r="O12" s="5">
         <v>0</v>
       </c>
       <c r="P12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
         <v>866.66</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1275,17 +1330,18 @@
       <c r="M13" s="5">
         <v>0</v>
       </c>
-      <c r="N13" s="5">
-        <v>0</v>
-      </c>
+      <c r="N13" s="5"/>
       <c r="O13" s="5">
         <v>0</v>
       </c>
       <c r="P13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
         <v>858.33</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1321,17 +1377,18 @@
       <c r="M14" s="5">
         <v>0</v>
       </c>
-      <c r="N14" s="5">
-        <v>0</v>
-      </c>
+      <c r="N14" s="5"/>
       <c r="O14" s="5">
         <v>0</v>
       </c>
       <c r="P14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
         <v>850</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -1367,13 +1424,14 @@
       <c r="M15" s="5">
         <v>0</v>
       </c>
-      <c r="N15" s="5">
-        <v>0</v>
-      </c>
+      <c r="N15" s="5"/>
       <c r="O15" s="5">
         <v>0</v>
       </c>
       <c r="P15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5">
         <v>841.7</v>
       </c>
     </row>
